--- a/Data/Metadata/Samples.xlsx
+++ b/Data/Metadata/Samples.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dispe\Code\Dual-Deflection\Data\Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08f9f412f899893/Documents/GitHub/dual_deflection/Data/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E340D-F529-495A-AE42-82796DC5032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{0A9E340D-F529-495A-AE42-82796DC5032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A232307-578A-4C74-B034-4BE5B56DC4D8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39555" yWindow="0" windowWidth="18045" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samples!$A$2:$S$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samples!$A$2:$T$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>sample_num</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>202-I</t>
+  </si>
+  <si>
+    <t>infiltration_time</t>
   </si>
 </sst>
 </file>
@@ -592,13 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -610,19 +613,19 @@
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
-    <col min="10" max="11" width="22" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11" style="1"/>
+    <col min="9" max="10" width="15.75" style="1" customWidth="1"/>
+    <col min="11" max="12" width="22" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -651,34 +654,37 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -703,14 +709,11 @@
       <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>40</v>
@@ -718,68 +721,74 @@
       <c r="O2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="10">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="P2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13">
         <v>760</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="13">
         <v>261.89999999999998</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="13">
         <v>238</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>2</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="12">
-        <v>44384</v>
-      </c>
-      <c r="M3" s="10" t="s">
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>2</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="12">
-        <v>44353</v>
-      </c>
-      <c r="O3" s="12">
+      <c r="M3" s="13" t="str">
+        <f>IF(L3="No", "No", IF(L3="To do", "Wait", "Insert date"))</f>
+        <v>No</v>
+      </c>
+      <c r="N3" s="15">
         <v>44368</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O3" s="13" t="str">
+        <f>IF(OR(N3="Insert date", N3="Wait"), "Wait", "Insert date")</f>
+        <v>Insert date</v>
+      </c>
+      <c r="P3" s="13" t="str">
+        <f>IF(OR(O3="Insert date", O3="Wait"), "Wait", "Insert date")</f>
+        <v>Wait</v>
+      </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>760</v>
@@ -797,92 +806,104 @@
         <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="6">
-        <v>44363</v>
-      </c>
       <c r="M4" s="6">
-        <v>44368</v>
+        <v>44391</v>
       </c>
       <c r="N4" s="1" t="str">
-        <f>IF(OR(M4="Insert date", M4="Wait"), "Wait", "Insert date")</f>
+        <f>IF(OR(L4="To do", OR(M4="Insert date", M4="Wait")), "Wait", "Insert date")</f>
         <v>Insert date</v>
       </c>
       <c r="O4" s="1" t="str">
         <f>IF(OR(N4="Insert date", N4="Wait"), "Wait", "Insert date")</f>
         <v>Wait</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="13">
-        <v>10</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="P4" s="1" t="str">
+        <f>IF(OR(O4="Insert date", O4="Wait"), "Wait", "Insert date")</f>
+        <v>Wait</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C5" s="1">
         <v>760</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="1">
         <v>261.89999999999998</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="1">
         <v>238</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>2</v>
-      </c>
-      <c r="H5" s="13">
-        <v>2</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="13" t="str">
-        <f>IF(K5="No", "No", IF(K5="To do", "Wait", "Insert date"))</f>
-        <v>No</v>
-      </c>
-      <c r="M5" s="15">
-        <v>44368</v>
-      </c>
-      <c r="N5" s="13" t="str">
-        <f>IF(OR(M5="Insert date", M5="Wait"), "Wait", "Insert date")</f>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="6">
+        <v>44391</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f>IF(OR(L5="To do", OR(M5="Insert date", M5="Wait")), "Wait", "Insert date")</f>
         <v>Insert date</v>
       </c>
-      <c r="O5" s="13" t="str">
+      <c r="O5" s="1" t="str">
         <f>IF(OR(N5="Insert date", N5="Wait"), "Wait", "Insert date")</f>
         <v>Wait</v>
       </c>
-      <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P5" s="1" t="str">
+        <f>IF(OR(O5="Insert date", O5="Wait"), "Wait", "Insert date")</f>
+        <v>Wait</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="C6" s="1">
         <v>760</v>
@@ -900,41 +921,45 @@
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="6">
-        <v>44363</v>
-      </c>
       <c r="M6" s="6">
-        <v>44368</v>
+        <v>44397</v>
       </c>
       <c r="N6" s="1" t="str">
-        <f>IF(OR(M6="Insert date", M6="Wait"), "Wait", "Insert date")</f>
+        <f>IF(OR(L6="To do", OR(M6="Insert date", M6="Wait")), "Wait", "Insert date")</f>
         <v>Insert date</v>
       </c>
       <c r="O6" s="1" t="str">
         <f>IF(OR(N6="Insert date", N6="Wait"), "Wait", "Insert date")</f>
         <v>Wait</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P6" s="1" t="str">
+        <f>IF(OR(O6="Insert date", O6="Wait"), "Wait", "Insert date")</f>
+        <v>Wait</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C7" s="1">
         <v>760</v>
@@ -952,201 +977,220 @@
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1">
+        <v>15</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="6">
-        <v>44391</v>
-      </c>
-      <c r="M7" s="1" t="str">
-        <f>IF(OR(K7="To do", OR(L7="Insert date", L7="Wait")), "Wait", "Insert date")</f>
+      <c r="M7" s="6">
+        <v>44398</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f>IF(OR(L7="To do", OR(M7="Insert date", M7="Wait")), "Wait", "Insert date")</f>
         <v>Insert date</v>
-      </c>
-      <c r="N7" s="1" t="str">
-        <f>IF(OR(M7="Insert date", M7="Wait"), "Wait", "Insert date")</f>
-        <v>Wait</v>
       </c>
       <c r="O7" s="1" t="str">
         <f>IF(OR(N7="Insert date", N7="Wait"), "Wait", "Insert date")</f>
         <v>Wait</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="P7" s="1" t="str">
+        <f>IF(OR(O7="Insert date", O7="Wait"), "Wait", "Insert date")</f>
+        <v>Wait</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="C8" s="13">
+        <v>760</v>
+      </c>
+      <c r="D8" s="13">
+        <v>261.89999999999998</v>
+      </c>
+      <c r="E8" s="13">
+        <v>238</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="13">
+        <v>15</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="15">
+        <v>44399</v>
+      </c>
+      <c r="N8" s="13" t="str">
+        <f>IF(OR(L8="To do", OR(M8="Insert date", M8="Wait")), "Wait", "Insert date")</f>
+        <v>Insert date</v>
+      </c>
+      <c r="O8" s="13" t="str">
+        <f>IF(OR(N8="Insert date", N8="Wait"), "Wait", "Insert date")</f>
+        <v>Wait</v>
+      </c>
+      <c r="P8" s="13" t="str">
+        <f>IF(OR(O8="Insert date", O8="Wait"), "Wait", "Insert date")</f>
+        <v>Wait</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="C9" s="13">
+        <v>760</v>
+      </c>
+      <c r="D9" s="13">
+        <v>261.89999999999998</v>
+      </c>
+      <c r="E9" s="13">
+        <v>238</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2</v>
+      </c>
+      <c r="H9" s="13">
+        <v>2</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="13">
+        <v>15</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="15">
+        <v>44400</v>
+      </c>
+      <c r="N9" s="13" t="str">
+        <f>IF(OR(L9="To do", OR(M9="Insert date", M9="Wait")), "Wait", "Insert date")</f>
+        <v>Insert date</v>
+      </c>
+      <c r="O9" s="13" t="str">
+        <f>IF(OR(N9="Insert date", N9="Wait"), "Wait", "Insert date")</f>
+        <v>Wait</v>
+      </c>
+      <c r="P9" s="13" t="str">
+        <f>IF(OR(O9="Insert date", O9="Wait"), "Wait", "Insert date")</f>
+        <v>Wait</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
         <v>760</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D10" s="10">
         <v>261.89999999999998</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E10" s="10">
         <v>238</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J10" s="10">
+        <v>30</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="6">
-        <v>44363</v>
-      </c>
-      <c r="M8" s="1" t="str">
-        <f>IF(OR(K8="To do", OR(L8="Insert date", L8="Wait")), "Wait", "Insert date")</f>
-        <v>Insert date</v>
-      </c>
-      <c r="N8" s="1" t="str">
-        <f>IF(OR(M8="Insert date", M8="Wait"), "Wait", "Insert date")</f>
-        <v>Wait</v>
-      </c>
-      <c r="O8" s="1" t="str">
-        <f>IF(OR(N8="Insert date", N8="Wait"), "Wait", "Insert date")</f>
-        <v>Wait</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="M10" s="12">
+        <v>44384</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="12">
+        <v>44353</v>
+      </c>
+      <c r="P10" s="12">
+        <v>44368</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>760</v>
-      </c>
-      <c r="D9" s="1">
-        <v>261.89999999999998</v>
-      </c>
-      <c r="E9" s="1">
-        <v>238</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="6">
-        <v>44391</v>
-      </c>
-      <c r="M9" s="1" t="str">
-        <f>IF(OR(K9="To do", OR(L9="Insert date", L9="Wait")), "Wait", "Insert date")</f>
-        <v>Insert date</v>
-      </c>
-      <c r="N9" s="1" t="str">
-        <f>IF(OR(M9="Insert date", M9="Wait"), "Wait", "Insert date")</f>
-        <v>Wait</v>
-      </c>
-      <c r="O9" s="1" t="str">
-        <f>IF(OR(N9="Insert date", N9="Wait"), "Wait", "Insert date")</f>
-        <v>Wait</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>760</v>
-      </c>
-      <c r="D10" s="1">
-        <v>261.89999999999998</v>
-      </c>
-      <c r="E10" s="1">
-        <v>238</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="6">
-        <v>44384</v>
-      </c>
-      <c r="M10" s="1" t="str">
-        <f>IF(OR(K10="To do", OR(L10="Insert date", L10="Wait")), "Wait", "Insert date")</f>
-        <v>Insert date</v>
-      </c>
-      <c r="N10" s="1" t="str">
-        <f>IF(OR(M10="Insert date", M10="Wait"), "Wait", "Insert date")</f>
-        <v>Wait</v>
-      </c>
-      <c r="O10" s="1" t="str">
-        <f>IF(OR(N10="Insert date", N10="Wait"), "Wait", "Insert date")</f>
-        <v>Wait</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>760</v>
@@ -1164,42 +1208,44 @@
         <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1">
+        <v>30</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="6">
-        <v>44397</v>
-      </c>
-      <c r="M11" s="1" t="str">
-        <f>IF(OR(K11="To do", OR(L11="Insert date", L11="Wait")), "Wait", "Insert date")</f>
-        <v>Insert date</v>
-      </c>
-      <c r="N11" s="1" t="str">
-        <f>IF(OR(M11="Insert date", M11="Wait"), "Wait", "Insert date")</f>
-        <v>Wait</v>
+      <c r="M11" s="6">
+        <v>44363</v>
+      </c>
+      <c r="N11" s="6">
+        <v>44368</v>
       </c>
       <c r="O11" s="1" t="str">
         <f>IF(OR(N11="Insert date", N11="Wait"), "Wait", "Insert date")</f>
-        <v>Wait</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>Insert date</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f>IF(OR(O11="Insert date", O11="Wait"), "Wait", "Insert date")</f>
+        <v>Wait</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>760</v>
@@ -1217,152 +1263,166 @@
         <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="1">
+        <v>30</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="6">
-        <v>44398</v>
-      </c>
-      <c r="M12" s="1" t="str">
-        <f>IF(OR(K12="To do", OR(L12="Insert date", L12="Wait")), "Wait", "Insert date")</f>
-        <v>Insert date</v>
-      </c>
-      <c r="N12" s="1" t="str">
-        <f>IF(OR(M12="Insert date", M12="Wait"), "Wait", "Insert date")</f>
-        <v>Wait</v>
+      <c r="M12" s="6">
+        <v>44363</v>
+      </c>
+      <c r="N12" s="6">
+        <v>44368</v>
       </c>
       <c r="O12" s="1" t="str">
         <f>IF(OR(N12="Insert date", N12="Wait"), "Wait", "Insert date")</f>
-        <v>Wait</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+        <v>Insert date</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f>IF(OR(O12="Insert date", O12="Wait"), "Wait", "Insert date")</f>
+        <v>Wait</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="C13" s="13">
+    <row r="13" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
         <v>760</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="1">
         <v>261.89999999999998</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="1">
         <v>238</v>
       </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="13">
-        <v>2</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="13" t="s">
+      <c r="J13" s="1">
+        <v>30</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="15">
-        <v>44399</v>
-      </c>
-      <c r="M13" s="13" t="str">
-        <f>IF(OR(K13="To do", OR(L13="Insert date", L13="Wait")), "Wait", "Insert date")</f>
+      <c r="M13" s="6">
+        <v>44363</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f>IF(OR(L13="To do", OR(M13="Insert date", M13="Wait")), "Wait", "Insert date")</f>
         <v>Insert date</v>
       </c>
-      <c r="N13" s="13" t="str">
-        <f>IF(OR(M13="Insert date", M13="Wait"), "Wait", "Insert date")</f>
-        <v>Wait</v>
-      </c>
-      <c r="O13" s="13" t="str">
+      <c r="O13" s="1" t="str">
         <f>IF(OR(N13="Insert date", N13="Wait"), "Wait", "Insert date")</f>
         <v>Wait</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="P13" s="1" t="str">
+        <f>IF(OR(O13="Insert date", O13="Wait"), "Wait", "Insert date")</f>
+        <v>Wait</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C14" s="1">
         <v>760</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="1">
         <v>261.89999999999998</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="1">
         <v>238</v>
       </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
-        <v>2</v>
-      </c>
-      <c r="H14" s="13">
-        <v>2</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="13" t="s">
+      <c r="J14" s="1">
+        <v>30</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="15">
-        <v>44400</v>
-      </c>
-      <c r="M14" s="13" t="str">
-        <f>IF(OR(K14="To do", OR(L14="Insert date", L14="Wait")), "Wait", "Insert date")</f>
+      <c r="M14" s="6">
+        <v>44384</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f>IF(OR(L14="To do", OR(M14="Insert date", M14="Wait")), "Wait", "Insert date")</f>
         <v>Insert date</v>
       </c>
-      <c r="N14" s="13" t="str">
-        <f>IF(OR(M14="Insert date", M14="Wait"), "Wait", "Insert date")</f>
-        <v>Wait</v>
-      </c>
-      <c r="O14" s="13" t="str">
+      <c r="O14" s="1" t="str">
         <f>IF(OR(N14="Insert date", N14="Wait"), "Wait", "Insert date")</f>
         <v>Wait</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="P14" s="1" t="str">
+        <f>IF(OR(O14="Insert date", O14="Wait"), "Wait", "Insert date")</f>
+        <v>Wait</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J16" s="8"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K16" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S16" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:S16">
-      <sortCondition ref="A2:A16"/>
+  <autoFilter ref="A2:T16" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T16">
+      <sortCondition ref="K2:K16"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
